--- a/biology/Zoologie/Ero_(genre)/Ero_(genre).xlsx
+++ b/biology/Zoologie/Ero_(genre)/Ero_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ero est un genre d'araignées aranéomorphes de la famille des Mimetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ero est un genre d'araignées aranéomorphes de la famille des Mimetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Asie, en Amérique et en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Asie, en Amérique et en Afrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 15/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 15/03/2024) :
 Ero aphana (Walckenaer, 1802)
 Ero cachinnans Brignoli, 1978
 Ero cambridgei Kulczyński, 1911
@@ -588,7 +604,7 @@
 Ero tenebrosa Lissner, 2018
 Ero tuberculata (De Geer, 1778)
 Ero valida Keyserling, 1891
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Ero aberrans Petrunkevitch, 1958
 † Ero carboneana Petrunkevitch, 1942
 † Ero clunis Wunderlich, 2012
@@ -624,11 +640,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par C. L. Koch en 1836.
-Palaeoero[3] et Succinero[3] ont été placés en synonymie par Harms et Dunlop en 2009[4].
-Ermetus[5] a été placé en synonymie par Benavides et Hormiga en 2020[6].
+Palaeoero et Succinero ont été placés en synonymie par Harms et Dunlop en 2009.
+Ermetus a été placé en synonymie par Benavides et Hormiga en 2020.
 </t>
         </is>
       </c>
@@ -657,7 +675,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1836 : Arachniden. Deutschlands Insekten, p. 134-141.</t>
         </is>
